--- a/data/income_statement/2digits/size/28_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/28_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>28-Manufacture of machinery and equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>28-Manufacture of machinery and equipment n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1118 +841,1263 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1190006.45568</v>
+        <v>1336589.29636</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1348632.46615</v>
+        <v>1519425.43188</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1557707.87027</v>
+        <v>1720735.0165</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1455401.90941</v>
+        <v>1635889.59428</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1403176.81911</v>
+        <v>1622981.76912</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1487690.59719</v>
+        <v>1759662.67605</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1411042.71429</v>
+        <v>1748757.04385</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1545388.68415</v>
+        <v>1925509.16791</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1559151.74574</v>
+        <v>1961622.42881</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4926261.236769999</v>
+        <v>5558426.25075</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4999359.55027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5990389.67806</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6724849.242</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1060134.0935</v>
+        <v>1187375.54667</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1218805.99858</v>
+        <v>1368089.52262</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1383223.44801</v>
+        <v>1528788.30423</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1316344.88607</v>
+        <v>1476441.02982</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1256080.15775</v>
+        <v>1451655.36399</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1307460.34646</v>
+        <v>1542138.7327</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1252403.45074</v>
+        <v>1547332.51077</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1358754.802</v>
+        <v>1694631.04881</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1379340.02717</v>
+        <v>1731324.63312</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4155146.25269</v>
+        <v>4691182.54211</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4072284.549850001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4914112.58249</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5544790.681</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>115183.8856</v>
+        <v>130873.32994</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>116077.30905</v>
+        <v>133801.92764</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>157756.91669</v>
+        <v>171788.02096</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>125698.56019</v>
+        <v>140446.64491</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>133760.47836</v>
+        <v>152596.44106</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>168195.8997</v>
+        <v>193771.35441</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>145349.35158</v>
+        <v>175681.6702</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>169154.03494</v>
+        <v>199524.26927</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>163292.2112</v>
+        <v>198086.13805</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>718938.7871900001</v>
+        <v>791834.78361</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>864525.2758099999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>988335.50491</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1088510.57</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>14688.47658</v>
+        <v>18340.41975</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>13749.15852</v>
+        <v>17533.98162</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>16727.50557</v>
+        <v>20158.69131</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>13358.46315</v>
+        <v>19001.91955</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>13336.183</v>
+        <v>18729.96407</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>12034.35103</v>
+        <v>23752.58894000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>13289.91197</v>
+        <v>25742.86288</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>17479.84721</v>
+        <v>31353.84983</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>16519.50737</v>
+        <v>32211.65764</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>52176.19689</v>
+        <v>75408.92503</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>62549.72461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>87941.59066</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>91547.99099999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>12098.47088</v>
+        <v>15359.59143</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9868.86318</v>
+        <v>10914.58985</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>11064.47332</v>
+        <v>13038.88233</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>12684.37652</v>
+        <v>15391.19</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11685.94481</v>
+        <v>14394.85221</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>12591.25918</v>
+        <v>15307.88926</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11828.08088</v>
+        <v>16061.15719</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>11368.28501</v>
+        <v>16483.11509</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11855.33047</v>
+        <v>18734.03388</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>37970.19461</v>
+        <v>44945.70544999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>35564.85371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>48455.49453</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>116538.924</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>10311.91482</v>
+        <v>12529.83639</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8945.692999999999</v>
+        <v>9695.59266</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9417.00361</v>
+        <v>11126.0349</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>11480.17203</v>
+        <v>13887.14786</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10558.82694</v>
+        <v>12911.93897</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10257.39751</v>
+        <v>12616.93017</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9245.381120000002</v>
+        <v>12899.98836</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9614.238609999999</v>
+        <v>14177.56258</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>10026.67976</v>
+        <v>16454.07175</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>32961.64967</v>
+        <v>38872.34308</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>30601.91057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>42325.8141</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>110673.037</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1279.42122</v>
+        <v>2284.28058</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>648.7628199999999</v>
+        <v>921.3417000000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>835.69239</v>
+        <v>962.96431</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>826.7753600000001</v>
+        <v>1054.51641</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>968.2652099999999</v>
+        <v>1098.07937</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1775.24743</v>
+        <v>2124.85384</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2216.85655</v>
+        <v>2408.91825</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1313.74513</v>
+        <v>1509.04654</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1280.91101</v>
+        <v>1677.51218</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2838.62321</v>
+        <v>3671.661</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2377.09044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3339.94235</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3654.932</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>507.1348400000001</v>
+        <v>545.4744599999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>274.40736</v>
+        <v>297.65549</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>811.77732</v>
+        <v>949.88312</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>377.42913</v>
+        <v>449.52573</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>158.85266</v>
+        <v>384.83387</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>558.61424</v>
+        <v>566.1052499999998</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>365.84321</v>
+        <v>752.25058</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>440.30127</v>
+        <v>796.5059699999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>547.7397</v>
+        <v>602.4499499999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2169.92173</v>
+        <v>2401.70137</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2585.8527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2789.738080000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2210.955</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1177907.9848</v>
+        <v>1321229.70493</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1338763.60297</v>
+        <v>1508510.84203</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1546643.39695</v>
+        <v>1707696.13417</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1442717.53289</v>
+        <v>1620498.40428</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1391490.8743</v>
+        <v>1608586.91691</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1475099.33801</v>
+        <v>1744354.78679</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1399214.63341</v>
+        <v>1732695.88666</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1534020.39914</v>
+        <v>1909026.05282</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1547296.41527</v>
+        <v>1942888.39493</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4888291.04216</v>
+        <v>5513480.5453</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4963794.69656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5941934.183530001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6608310.318</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>930512.98421</v>
+        <v>1042228.61749</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1071782.18571</v>
+        <v>1203406.01365</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1243503.34869</v>
+        <v>1369092.25271</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1139896.0921</v>
+        <v>1277279.52664</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1118277.791</v>
+        <v>1282678.34601</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1180178.26824</v>
+        <v>1378688.23482</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1111379.00604</v>
+        <v>1361794.39243</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1215266.72735</v>
+        <v>1502672.71352</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1227823.84347</v>
+        <v>1527463.39854</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3972763.85925</v>
+        <v>4456362.981720001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3980160.37559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4749072.429869999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5381112.564</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>498667.87332</v>
+        <v>569282.34879</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>571919.8351099999</v>
+        <v>657949.12514</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>661314.16101</v>
+        <v>748134.50396</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>601756.51799</v>
+        <v>684805.7095499999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>624770.98924</v>
+        <v>735044.4095500001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>639993.17938</v>
+        <v>769951.9819700001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>627066.1885800001</v>
+        <v>792621.7079800001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>629260.46924</v>
+        <v>819404.5615599999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>633751.8704400001</v>
+        <v>822982.406</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2232808.58628</v>
+        <v>2516049.313370001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2262743.67134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2770846.78229</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2987668.833</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>347141.90173</v>
+        <v>378434.66857</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>395794.60468</v>
+        <v>427345.58423</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>479998.22895</v>
+        <v>508032.45263</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>433087.93412</v>
+        <v>470328.52117</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>399580.45718</v>
+        <v>439957.8638000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>433439.61054</v>
+        <v>484985.66221</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>381825.47131</v>
+        <v>443363.68939</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>468005.7806400001</v>
+        <v>537780.5984</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>483581.77816</v>
+        <v>555235.8455800001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1464565.24764</v>
+        <v>1615235.90543</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1472583.29747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1669357.24602</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2002556.388</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>82736.85076</v>
+        <v>91324.67707999998</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>100031.06819</v>
+        <v>113006.14045</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>99851.12132999999</v>
+        <v>110040.95753</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>98705.87536000002</v>
+        <v>112852.8658</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>87953.19627000001</v>
+        <v>101120.42761</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>98207.63714000001</v>
+        <v>113421.91938</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>90570.16403</v>
+        <v>112072.66838</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>114310.51611</v>
+        <v>137098.67444</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>105770.12306</v>
+        <v>136409.87145</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>258657.32503</v>
+        <v>304175.6612399999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>227748.86577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>286628.20222</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>354649.838</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1966.3584</v>
+        <v>3186.92305</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4036.677729999999</v>
+        <v>5105.163830000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2339.8374</v>
+        <v>2884.33859</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>6345.76463</v>
+        <v>9292.430119999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5973.14831</v>
+        <v>6555.645050000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8537.841179999999</v>
+        <v>10328.67126</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11917.18212</v>
+        <v>13736.32668</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3689.96136</v>
+        <v>8388.879120000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4720.07181</v>
+        <v>12835.27551</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>16732.7003</v>
+        <v>20902.10168</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>17084.54101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>22240.19934</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>36237.505</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>247395.00059</v>
+        <v>279001.08744</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>266981.41726</v>
+        <v>305104.82838</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>303140.04826</v>
+        <v>338603.88146</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>302821.44079</v>
+        <v>343218.87764</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>273213.0833</v>
+        <v>325908.5709</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>294921.06977</v>
+        <v>365666.55197</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>287835.62737</v>
+        <v>370901.49423</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>318753.6717899999</v>
+        <v>406353.3392999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>319472.5718</v>
+        <v>415424.9963899999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>915527.18291</v>
+        <v>1057117.56358</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>983634.32097</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1192861.75366</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1227197.754</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>193036.09337</v>
+        <v>228852.19147</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>200782.87698</v>
+        <v>243190.00003</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>219919.80673</v>
+        <v>257779.27945</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>234458.48364</v>
+        <v>278196.48198</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>217505.75688</v>
+        <v>266282.52503</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>238560.03211</v>
+        <v>300971.61492</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>232861.23848</v>
+        <v>314728.9856300001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>271376.39624</v>
+        <v>375535.09684</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>274616.22304</v>
+        <v>379005.4384500001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>655773.38611</v>
+        <v>780319.3012699999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>706462.25529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>892513.75211</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>905222.598</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1041.26938</v>
+        <v>1588.76048</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1228.7702</v>
+        <v>1619.00481</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>954.6021600000001</v>
+        <v>1133.31019</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1466.01647</v>
+        <v>2234.37198</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1948.37504</v>
+        <v>2191.19605</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1589.97929</v>
+        <v>2044.776</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2416.73808</v>
+        <v>3316.073160000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3388.14083</v>
+        <v>6241.924329999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3234.93619</v>
+        <v>4365.87583</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>6954.94701</v>
+        <v>8741.803790000002</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6377.04921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8553.355170000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9262.407999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>33856.53805</v>
+        <v>38260.4321</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>33733.42629</v>
+        <v>38248.80673</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>37878.75154999999</v>
+        <v>41624.74247</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>48234.22139999999</v>
+        <v>52825.18818</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>33079.77305</v>
+        <v>39215.66508</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>41889.39986</v>
+        <v>50304.09408</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>37603.87911</v>
+        <v>49606.47066</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>51848.79371</v>
+        <v>66441.52114</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>45096.40093</v>
+        <v>58294.12854999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>126256.3561</v>
+        <v>143484.93188</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>138380.61704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>160712.87651</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>139773.156</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>158138.28594</v>
+        <v>189002.99889</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>165820.68049</v>
+        <v>203322.18849</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>181086.45302</v>
+        <v>215021.22679</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>184758.24577</v>
+        <v>223136.92182</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>182477.60879</v>
+        <v>224875.6639</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>195080.65296</v>
+        <v>248622.74484</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>192840.62129</v>
+        <v>261806.44181</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>216139.4617</v>
+        <v>302851.65137</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>226284.88592</v>
+        <v>316345.43407</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>522562.083</v>
+        <v>628092.5656</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>561704.58904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>723247.5204299999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>756187.034</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>54358.90722</v>
+        <v>50148.89597</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>66198.54028</v>
+        <v>61914.82835</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>83220.24153</v>
+        <v>80824.60201</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>68362.95715</v>
+        <v>65022.39565999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>55707.32642</v>
+        <v>59626.04587</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>56361.03765999999</v>
+        <v>64694.93705</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>54974.38889</v>
+        <v>56172.50859999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>47377.27555</v>
+        <v>30818.24246</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>44856.34876</v>
+        <v>36419.55794</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>259753.7968</v>
+        <v>276798.26231</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>277172.06568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>300348.00155</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>321975.156</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>8621.60202</v>
+        <v>32636.73414</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>7493.8454</v>
+        <v>29574.48572</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>10681.96178</v>
+        <v>48764.51689</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7349.41048</v>
+        <v>96318.14554</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>11003.04271</v>
+        <v>45943.87913999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>10199.92801</v>
+        <v>101132.4425</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12951.6429</v>
+        <v>216719.01153</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>13015.5032</v>
+        <v>176863.10798</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>13061.03104</v>
+        <v>105283.00032</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>94426.07915999999</v>
+        <v>220523.51696</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>64288.99769999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>178166.02761</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>418950.315</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>436.51438</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2.70418</v>
+        <v>897.77198</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4.0123</v>
+        <v>1211.10537</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1.53492</v>
+        <v>1501.98733</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>7.9334</v>
+        <v>2207.9334</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>122.92009</v>
+        <v>2185.42009</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>156.81947</v>
+        <v>3297.4215</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>104.87992</v>
+        <v>4854.88665</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>4417.492220000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>90.62398000000002</v>
+        <v>8303.04278</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>37.1055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9755.850489999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>20403.031</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1.67199</v>
+        <v>610.36576</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1e-05</v>
+        <v>2848.80231</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0.43559</v>
+        <v>1657.7369</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1.00097</v>
+        <v>614.89667</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0.74663</v>
+        <v>202.83029</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3.67445</v>
+        <v>13751.29055</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2.62176</v>
+        <v>124680.64323</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>10.73583</v>
+        <v>107676.38744</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3.45102</v>
+        <v>32500.92226</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>54.45901</v>
+        <v>5525.60372</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>143.03229</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>139979.509</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>947.2173399999999</v>
+        <v>3338.52797</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>882.5081</v>
+        <v>4299.279739999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>929.5881199999999</v>
+        <v>4364.81819</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1446.96672</v>
+        <v>8277.300140000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>955.46756</v>
+        <v>3870.95792</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1084.00775</v>
+        <v>11858.9199</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1165.25338</v>
+        <v>9296.941490000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1522.42004</v>
+        <v>8320.55762</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>986.02526</v>
+        <v>5633.353790000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>6030.103710000001</v>
+        <v>11260.80464</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6328.09091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>20515.74852</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>26430.519</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1042.51402</v>
+        <v>1468.99001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1078.21206</v>
+        <v>1094.53203</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1059.38717</v>
+        <v>1077.81947</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1054.14211</v>
+        <v>1056.54211</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1516.68643</v>
+        <v>1518.80507</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1787.30476</v>
+        <v>1787.33334</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1553.56663</v>
+        <v>1554.37256</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>134.4148</v>
+        <v>186.06599</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>95.6519</v>
+        <v>744.77376</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>297.46961</v>
+        <v>298.00096</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>307.07713</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>515.17225</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>869.692</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>370.45876</v>
+        <v>1081.17904</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>133.46466</v>
+        <v>285.73964</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>198.8814</v>
+        <v>535.75409</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>126.61962</v>
+        <v>135.60851</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1.34354</v>
+        <v>112.56617</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>99.80412999999999</v>
+        <v>886.88905</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5.800890000000001</v>
+        <v>2269.45782</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>234.20724</v>
+        <v>1442.7014</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>77.49985000000001</v>
+        <v>1254.04362</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>487.90439</v>
+        <v>4655.53067</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>426.98374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1989.01896</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1548.864</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>115.17236</v>
+        <v>610.33825</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>42.45379</v>
+        <v>302.65756</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>66.04675</v>
+        <v>152.64437</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>85.00479999999999</v>
+        <v>173.20313</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>31.64065</v>
+        <v>97.00117000000002</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>74.93435000000001</v>
+        <v>447.81462</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>104.23787</v>
+        <v>383.08235</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>110.81199</v>
+        <v>2022.89669</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>52.66266</v>
+        <v>430.3338000000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>305.78514</v>
+        <v>18506.83179</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>296.82819</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>977.66587</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>5229.828</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3393.23232</v>
+        <v>13304.71517</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2927.46949</v>
+        <v>12460.87911</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5596.054879999999</v>
+        <v>18962.98153</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2374.96092</v>
+        <v>71778.26222</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4964.97208</v>
+        <v>23106.65433</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4510.50217</v>
+        <v>59933.83119</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>7086.28482</v>
+        <v>64975.60345</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>7300.239130000001</v>
+        <v>37309.55801</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6183.47719</v>
+        <v>40303.21058</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>74076.41444999998</v>
+        <v>147351.23095</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>41942.20859</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>104129.4047</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>185467.556</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2.69711</v>
+        <v>237.12796</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>18.5</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>15.608</v>
+        <v>185.1205</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0</v>
+        <v>149.17685</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>17.84585</v>
@@ -2066,37 +2112,42 @@
         <v>2.73661</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0.7524299999999999</v>
+        <v>1.00289</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>73.52596000000001</v>
+        <v>77.87855</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>389.22316</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>700.861</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>23.36571</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>29.52923</v>
+        <v>40.50113</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>2.63823</v>
+        <v>5.02583</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>68.00295999999999</v>
+        <v>127.06334</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>100.69379</v>
+        <v>286.99356</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>77.80875</v>
+        <v>173.69065</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>35.25891</v>
@@ -2105,7 +2156,7 @@
         <v>2.42014</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>3.04026</v>
+        <v>5.94402</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>12.81841</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>115.1709</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>21.966</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2725.27241</v>
+        <v>11525.60989</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2379.00388</v>
+        <v>7325.822220000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2809.30934</v>
+        <v>20611.51064</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2191.17746</v>
+        <v>12504.10524</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3405.71278</v>
+        <v>14522.29138</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2414.837750000001</v>
+        <v>10083.1193</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2834.34272</v>
+        <v>10218.77377</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3592.6375</v>
+        <v>15044.89743</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5658.470469999999</v>
+        <v>19991.92338</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>12996.9745</v>
+        <v>24531.77449</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>14303.27729</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>39635.74047</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>38298.489</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>6982.56649</v>
+        <v>25380.54948</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5899.12559</v>
+        <v>15709.42297</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8030.351129999999</v>
+        <v>40012.26195</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>9459.438029999999</v>
+        <v>43803.74693</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7213.08685</v>
+        <v>29475.26936</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6708.677129999999</v>
+        <v>77504.95196999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8694.274589999999</v>
+        <v>89545.47637</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>11786.91519</v>
+        <v>118840.3041</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>10811.53829</v>
+        <v>93463.65601000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>84275.51120000001</v>
+        <v>185534.10188</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>60585.56451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>138311.36101</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>220417.759</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>221.29293</v>
+        <v>247.908</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>204.5188</v>
+        <v>265.5007900000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>236.85543</v>
+        <v>281.14548</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>340.74273</v>
+        <v>405.86009</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>279.42736</v>
+        <v>402.18135</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>262.5059</v>
+        <v>307.62154</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>442.09783</v>
+        <v>527.56663</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>704.23648</v>
+        <v>3296.19145</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>174.26861</v>
+        <v>997.79777</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1618.31328</v>
+        <v>1763.6077</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>925.0956699999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1612.35807</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2250.972</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1217.00216</v>
+        <v>7936.68649</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1022.80324</v>
+        <v>1104.47852</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2242.99191</v>
+        <v>3003.09299</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2985.13785</v>
+        <v>3095.66584</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1389.6335</v>
+        <v>1512.94905</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1161.64154</v>
+        <v>2895.46021</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1359.48246</v>
+        <v>2606.80251</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1707.68114</v>
+        <v>13353.2936</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1428.33782</v>
+        <v>1887.15668</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5382.915700000001</v>
+        <v>10971.56357</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4964.10903</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7037.33417</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4859.263</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>71.19570000000002</v>
+        <v>1143.361</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>142.41506</v>
+        <v>227.85663</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>21.70314</v>
+        <v>23.29238</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>76.70934</v>
+        <v>77.59034</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>32.73883</v>
+        <v>132.26483</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>28.22926</v>
+        <v>835.6959000000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>21.10073</v>
+        <v>109.16233</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0.90025</v>
+        <v>47.8521</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0.50002</v>
+        <v>106.09634</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>426.0745699999999</v>
+        <v>829.68624</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>33.49581</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>238.85063</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>504.767</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3132.02241</v>
+        <v>12375.74825</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2865.21955</v>
+        <v>11524.8531</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3768.54722</v>
+        <v>34497.95161</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2692.32444</v>
+        <v>35939.59657</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3407.55633</v>
+        <v>24189.26035</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4458.43115</v>
+        <v>53859.16907</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5661.22148</v>
+        <v>64643.34395</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7814.77508</v>
+        <v>82759.47125</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>7648.89224</v>
+        <v>66706.83377</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>70964.25999999999</v>
+        <v>164784.37949</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>48258.83196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>119525.80766</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>206935.662</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>27.05018</v>
+        <v>247.66393</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>5.649049999999999</v>
@@ -2366,7 +2452,7 @@
         <v>18.30197</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0.7228</v>
+        <v>1.61205</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0.14703</v>
@@ -2375,10 +2461,10 @@
         <v>0.35582</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0.36004</v>
+        <v>0.3696199999999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.96415</v>
+        <v>1.76715</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>53.26617</v>
@@ -2386,29 +2472,34 @@
       <c r="M41" s="48" t="n">
         <v>377.5663</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>7.926299999999999</v>
+        <v>8.45509</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0.03011</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>34.8669</v>
+        <v>82.54689999999999</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>37.03302000000001</v>
+        <v>41.19647</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>16.09303</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>2.0261</v>
+        <v>2.48639</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>4.34555</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>7.76396</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>167.042</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2306.07681</v>
+        <v>3420.72672</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1658.48978</v>
+        <v>2581.05477</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1725.06766</v>
+        <v>2123.91372</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3309.18868</v>
+        <v>4225.535650000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2086.915</v>
+        <v>3220.9087</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>795.6961499999999</v>
+        <v>19604.37183</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1205.67072</v>
+        <v>21653.89958</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1558.91809</v>
+        <v>19383.08197</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1558.57545</v>
+        <v>23764.0043</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>5811.948050000001</v>
+        <v>7112.865279999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6018.701779999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9511.68022</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5697.702</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>12122.58935</v>
+        <v>18279.60695</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9044.979640000001</v>
+        <v>16656.71263</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9766.676979999998</v>
+        <v>156926.55596</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>10544.3861</v>
+        <v>73683.95107000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>8884.30358</v>
+        <v>15803.1865</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>9565.17758</v>
+        <v>31556.81278</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9679.229170000001</v>
+        <v>35149.24081</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>11140.94879</v>
+        <v>36567.67992</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9578.148019999999</v>
+        <v>40579.36912999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>43936.94258</v>
+        <v>74308.67855000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>50094.83616</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>95678.62215000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>82792.458</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>11646.56506</v>
+        <v>17440.2365</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>8547.417579999999</v>
+        <v>14892.88903</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9138.428399999999</v>
+        <v>155909.50372</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>10042.05081</v>
+        <v>72946.75107000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>8376.920539999999</v>
+        <v>14946.8297</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>9171.743210000001</v>
+        <v>26698.08419</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9416.93038</v>
+        <v>33122.38755000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10898.87257</v>
+        <v>35402.56019</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9207.884460000001</v>
+        <v>39029.6899</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>42576.73586</v>
+        <v>72172.79747</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>48791.36298000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>89846.42268999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>80029.84600000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>476.0242900000001</v>
+        <v>839.37045</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>497.5620599999999</v>
+        <v>1763.8236</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>628.2485800000001</v>
+        <v>1017.05224</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>502.33529</v>
+        <v>737.2</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>507.3830400000001</v>
+        <v>856.3567999999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>393.43437</v>
+        <v>4858.72859</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>262.29879</v>
+        <v>2026.85326</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>242.07622</v>
+        <v>1165.11973</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>370.26356</v>
+        <v>1549.67923</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1360.20672</v>
+        <v>2135.88108</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1303.47318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5832.19946</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2762.612</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>43875.35340000001</v>
+        <v>39125.47368000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>58748.28045000001</v>
+        <v>59123.17847</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>76105.17519999998</v>
+        <v>-67349.69901000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>55708.5435</v>
+        <v>43852.8432</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>50612.9787</v>
+        <v>60291.46915</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>50287.11095999999</v>
+        <v>56765.6148</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>49552.52803</v>
+        <v>148196.80295</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>37464.91477</v>
+        <v>52273.36642</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>37527.69349000001</v>
+        <v>7659.533119999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>225967.42218</v>
+        <v>237478.99884</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>230780.66271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>244524.046</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>437715.254</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>8237.438620000001</v>
+        <v>11801.90109</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6322.010859999999</v>
+        <v>12299.09487</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6413.089720000001</v>
+        <v>18993.19524</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>5978.8415</v>
+        <v>9833.204159999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8429.154259999999</v>
+        <v>16178.11847</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8170.866290000001</v>
+        <v>29287.50827</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>12049.8131</v>
+        <v>31531.1544</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9059.90461</v>
+        <v>284596.62772</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>8050.38076</v>
+        <v>41285.88234</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>25608.16555</v>
+        <v>33427.39179</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>39018.17416999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>71210.07087000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>88810.349</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>54.02789</v>
+        <v>951.3948700000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>158.00402</v>
+        <v>649.5894000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>88.81452</v>
+        <v>208.61521</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>55.09461000000001</v>
+        <v>116.06166</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>169.80934</v>
+        <v>170.88495</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>128.59735</v>
+        <v>142.76128</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>37.74984</v>
+        <v>113.87544</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>15.48187</v>
+        <v>1001.50504</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>52.11539</v>
+        <v>58.96264</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>426.08658</v>
+        <v>435.5781500000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>777.4670599999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1338.5478</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>222.514</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>8183.410730000001</v>
+        <v>10850.50622</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6164.00684</v>
+        <v>11649.50547</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6324.275200000001</v>
+        <v>18784.58003</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5923.746889999999</v>
+        <v>9717.1425</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8259.34492</v>
+        <v>16007.23352</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>8042.26894</v>
+        <v>29144.74699</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>12012.06326</v>
+        <v>31417.27896</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9044.42274</v>
+        <v>283595.12268</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7998.26537</v>
+        <v>41226.91970000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>25182.07897</v>
+        <v>32991.81364</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>38240.70711</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>69871.52307000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>88587.83500000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>11223.53472</v>
+        <v>139456.45722</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7439.77751</v>
+        <v>69614.99753000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>71429.51359999999</v>
+        <v>97774.11103999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10251.72856</v>
+        <v>17535.40369</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>10862.41658</v>
+        <v>20814.2639</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>44769.9872</v>
+        <v>62603.45676</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7893.77811</v>
+        <v>22055.53142</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>39392.94884999999</v>
+        <v>283887.2636599999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>9649.784740000001</v>
+        <v>47369.77478</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>73310.66212000001</v>
+        <v>98044.33843</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>31320.10738</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>48041.57557</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>71039.633</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>423.4885400000001</v>
+        <v>1861.58825</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>389.93185</v>
+        <v>1444.23508</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>612.5927399999999</v>
+        <v>1346.22917</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>421.83794</v>
+        <v>1442.06946</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>382.38924</v>
+        <v>1837.94351</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>615.94539</v>
+        <v>1794.80937</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>413.6374499999999</v>
+        <v>2031.92758</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>991.6162399999999</v>
+        <v>2953.08683</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>456.77787</v>
+        <v>1447.35219</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>941.1632099999999</v>
+        <v>1955.6641</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2045.56855</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2905.51156</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8768.796</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1250.63486</v>
+        <v>1725.38653</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>361.37437</v>
+        <v>1183.53827</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>926.67557</v>
+        <v>1629.80735</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>606.3886</v>
+        <v>1341.86462</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>879.5740700000001</v>
+        <v>1006.48992</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>597.5660799999999</v>
+        <v>1386.06406</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>793.5327900000001</v>
+        <v>3557.8563</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>385.2755799999999</v>
+        <v>194868.41623</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>695.4668800000001</v>
+        <v>1140.24719</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>295.48762</v>
+        <v>876.6410900000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1769.97798</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>7728.89345</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1212.481</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>9549.411320000001</v>
+        <v>135869.48244</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6688.47129</v>
+        <v>66987.22417999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>69890.24529000001</v>
+        <v>94798.07451999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>9223.50202</v>
+        <v>14751.46961</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9600.45327</v>
+        <v>17969.83047</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>43556.47573000001</v>
+        <v>59422.58333</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6686.607869999999</v>
+        <v>16465.74754</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>38016.05703</v>
+        <v>86065.76059999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8497.539990000001</v>
+        <v>44782.17540000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>72074.01129000001</v>
+        <v>95212.03323999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>27504.56085</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>37407.17056000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>61058.356</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>40889.2573</v>
+        <v>-88529.08245</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>57630.5138</v>
+        <v>1807.27581</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>11088.75132</v>
+        <v>-146130.61481</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>51435.65644</v>
+        <v>36150.64367</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>48179.71638</v>
+        <v>55655.32372</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>13687.99005</v>
+        <v>23449.66630999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>53708.56302</v>
+        <v>157672.42593</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>7131.870529999998</v>
+        <v>52982.73048000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>35928.28951</v>
+        <v>1575.640680000002</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>178264.92561</v>
+        <v>172862.0522</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>238478.7295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>267692.5413</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>455485.97</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>11766.59317</v>
+        <v>13464.56557</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>13861.61117</v>
+        <v>16243.06869</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>16945.96765</v>
+        <v>19755.89896</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>14127.6123</v>
+        <v>16649.021</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>13881.40194</v>
+        <v>18252.79348</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>14290.36127</v>
+        <v>19002.82966</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>14033.09013</v>
+        <v>19439.25126</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13415.10755</v>
+        <v>23172.37901</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>13570.25877</v>
+        <v>19491.10795</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>55328.67702</v>
+        <v>67859.19663999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>53823.63073</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>72759.97002000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>86444.69899999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>29122.66413</v>
+        <v>-101993.64802</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>43768.90263</v>
+        <v>-14435.79288</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5857.21633</v>
+        <v>-165886.51377</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>37308.04414</v>
+        <v>19501.62267</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>34298.31443999999</v>
+        <v>37402.53023999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-602.3712199999998</v>
+        <v>4446.836650000002</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>39675.47289</v>
+        <v>138233.17467</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-6283.23702</v>
+        <v>29810.35147</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>22358.03074</v>
+        <v>-17915.46727</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>122936.24859</v>
+        <v>105002.85556</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>184655.09877</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>194932.57128</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>369041.271</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>4863</v>
+        <v>5233</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4834</v>
+        <v>5282</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4799</v>
+        <v>5238</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4525</v>
+        <v>5012</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4270</v>
+        <v>4836</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4190</v>
+        <v>4857</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4095</v>
+        <v>4916</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4191</v>
+        <v>5156</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4228</v>
+        <v>5274</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5547</v>
+        <v>6803</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5654</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7380</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>